--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1750576.121931579</v>
+        <v>-1753440.984489359</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9609079.927799525</v>
+        <v>9609079.927799527</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.61059389178083</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>61.91708457821949</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.31448940967739</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>122.3444829557677</v>
+        <v>169.4008001098131</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>29.71014592494667</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6773952840984929</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,11 +893,11 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.05142705643591</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>246.0227869135479</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,13 +984,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>93.14834382503273</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>76.62446154719007</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>160.1989433021659</v>
       </c>
       <c r="W7" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>270.7706607858352</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>36.17724524739476</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>113.7145621736547</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>49.4557265040697</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6672795084542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4049513529364</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.102655165480573</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.5208470146194</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.0170537055346</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1224473058968</v>
+        <v>410.1224473058969</v>
       </c>
       <c r="H14" t="n">
-        <v>286.4221550104062</v>
+        <v>286.4221550104063</v>
       </c>
       <c r="I14" t="n">
-        <v>10.76275127874962</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.97420644322948</v>
+        <v>90.97420644322953</v>
       </c>
       <c r="T14" t="n">
-        <v>200.419129173191</v>
+        <v>200.4191291731911</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9312296910966</v>
+        <v>250.9312296910974</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>124.958330233554</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6672795084542</v>
       </c>
       <c r="H16" t="n">
         <v>141.5673683864896</v>
       </c>
       <c r="I16" t="n">
-        <v>85.57048307439267</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>183.5208470146194</v>
       </c>
       <c r="T16" t="n">
-        <v>218.0170537055346</v>
+        <v>108.9311021539057</v>
       </c>
       <c r="U16" t="n">
         <v>286.1922820919452</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.1224473058968</v>
+        <v>410.1224473058969</v>
       </c>
       <c r="H17" t="n">
         <v>286.4221550104063</v>
       </c>
       <c r="I17" t="n">
-        <v>10.76275127874962</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>90.97420644322948</v>
+        <v>90.97420644322938</v>
       </c>
       <c r="T17" t="n">
-        <v>200.419129173191</v>
+        <v>200.4191291731911</v>
       </c>
       <c r="U17" t="n">
         <v>250.9312296910974</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>101.5380799607823</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6672795084542</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.5673683864896</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>72.81139630332633</v>
       </c>
       <c r="S19" t="n">
-        <v>183.5208470146194</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>218.0170537055346</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>219.0061993695634</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>101.5380799607823</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6672795084542</v>
+        <v>142.702293427285</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.57048307439267</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>72.81139630332633</v>
       </c>
       <c r="S22" t="n">
-        <v>183.5208470146194</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>218.0170537055346</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1922820919452</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G23" t="n">
         <v>410.1224473058969</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.6672795084542</v>
       </c>
       <c r="H25" t="n">
-        <v>110.6248254710959</v>
+        <v>141.5673683864896</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>72.81139630332633</v>
       </c>
       <c r="S25" t="n">
         <v>183.5208470146194</v>
@@ -2533,13 +2533,13 @@
         <v>286.1922820919452</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>51.83156340007019</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.95853837060858</v>
+        <v>125.6379910827468</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.5673683864896</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.1224473058969</v>
       </c>
       <c r="H29" t="n">
-        <v>286.4221550104064</v>
+        <v>286.4221550104063</v>
       </c>
       <c r="I29" t="n">
-        <v>10.76275127874974</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.97420644322959</v>
+        <v>90.97420644322953</v>
       </c>
       <c r="T29" t="n">
-        <v>200.4191291731912</v>
+        <v>200.4191291731911</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9312296910975</v>
+        <v>250.9312296910974</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>120.7713968226672</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6672795084542</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.5673683864896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.57048307439267</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>183.5208470146194</v>
       </c>
       <c r="T31" t="n">
-        <v>92.41728220543452</v>
+        <v>218.0170537055346</v>
       </c>
       <c r="U31" t="n">
         <v>286.1922820919452</v>
@@ -3029,25 +3029,25 @@
         <v>351.9749293666432</v>
       </c>
       <c r="C32" t="n">
-        <v>334.5139794741702</v>
+        <v>334.5139794741701</v>
       </c>
       <c r="D32" t="n">
-        <v>323.9241293238456</v>
+        <v>323.9241293238455</v>
       </c>
       <c r="E32" t="n">
         <v>351.1714577754244</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>376.117133444874</v>
       </c>
       <c r="G32" t="n">
-        <v>379.3635350090595</v>
+        <v>379.3635350090594</v>
       </c>
       <c r="H32" t="n">
-        <v>255.663242713569</v>
+        <v>255.6632427135689</v>
       </c>
       <c r="I32" t="n">
-        <v>8.574799704086532</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.21529414639214</v>
+        <v>60.21529414639211</v>
       </c>
       <c r="T32" t="n">
         <v>169.6602168763537</v>
       </c>
       <c r="U32" t="n">
-        <v>220.1723173942601</v>
+        <v>220.17231739426</v>
       </c>
       <c r="V32" t="n">
-        <v>296.9933461732975</v>
+        <v>325.5643068954734</v>
       </c>
       <c r="W32" t="n">
         <v>318.4820564205756</v>
       </c>
       <c r="X32" t="n">
-        <v>338.9721883816317</v>
+        <v>338.9721883816316</v>
       </c>
       <c r="Y32" t="n">
         <v>355.4790263592162</v>
@@ -3187,25 +3187,25 @@
         <v>149.0730678850999</v>
       </c>
       <c r="C34" t="n">
-        <v>136.4879088017905</v>
+        <v>136.4879088017904</v>
       </c>
       <c r="D34" t="n">
-        <v>117.856560721375</v>
+        <v>117.8565607213749</v>
       </c>
       <c r="E34" t="n">
-        <v>115.6750503497318</v>
+        <v>115.6750503497317</v>
       </c>
       <c r="F34" t="n">
-        <v>114.6621357260939</v>
+        <v>114.6621357260938</v>
       </c>
       <c r="G34" t="n">
-        <v>134.9083672116168</v>
+        <v>134.9083672116167</v>
       </c>
       <c r="H34" t="n">
         <v>110.8084560896522</v>
       </c>
       <c r="I34" t="n">
-        <v>54.81157077755529</v>
+        <v>54.81157077755525</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.05248400648895</v>
+        <v>42.05248400648978</v>
       </c>
       <c r="S34" t="n">
         <v>152.761934717782</v>
@@ -3250,7 +3250,7 @@
         <v>255.7640860397536</v>
       </c>
       <c r="X34" t="n">
-        <v>194.9507430921998</v>
+        <v>194.9507430921997</v>
       </c>
       <c r="Y34" t="n">
         <v>187.8257410552574</v>
@@ -3281,10 +3281,10 @@
         <v>379.3635350090594</v>
       </c>
       <c r="H35" t="n">
-        <v>284.234203435744</v>
+        <v>255.6632427135689</v>
       </c>
       <c r="I35" t="n">
-        <v>10.76275127874968</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>220.17231739426</v>
       </c>
       <c r="V35" t="n">
-        <v>296.9933461732975</v>
+        <v>305.5681458773846</v>
       </c>
       <c r="W35" t="n">
-        <v>318.4820564205756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>338.9721883816316</v>
@@ -3518,10 +3518,10 @@
         <v>379.3635350090595</v>
       </c>
       <c r="H38" t="n">
-        <v>255.663242713569</v>
+        <v>284.2342034357432</v>
       </c>
       <c r="I38" t="n">
-        <v>8.574799704086532</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>169.6602168763537</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9312296910974</v>
+        <v>220.1723173942601</v>
       </c>
       <c r="V38" t="n">
         <v>296.9933461732975</v>
@@ -3758,7 +3758,7 @@
         <v>255.663242713569</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.574799704086532</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>220.1723173942601</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>296.9933461732975</v>
       </c>
       <c r="W41" t="n">
-        <v>327.0568561246623</v>
+        <v>318.4820564205756</v>
       </c>
       <c r="X41" t="n">
         <v>338.9721883816317</v>
       </c>
       <c r="Y41" t="n">
-        <v>355.4790263592162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>110.8084560896522</v>
       </c>
       <c r="I43" t="n">
-        <v>54.8115707775553</v>
+        <v>54.81157077755529</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.05248400648897</v>
+        <v>42.05248400648895</v>
       </c>
       <c r="S43" t="n">
         <v>152.761934717782</v>
@@ -3977,25 +3977,25 @@
         <v>351.9749293666432</v>
       </c>
       <c r="C44" t="n">
-        <v>334.5139794741701</v>
+        <v>343.0887791782566</v>
       </c>
       <c r="D44" t="n">
-        <v>323.9241293238455</v>
+        <v>323.9241293238456</v>
       </c>
       <c r="E44" t="n">
         <v>351.1714577754244</v>
       </c>
       <c r="F44" t="n">
-        <v>376.117133444874</v>
+        <v>376.1171334448741</v>
       </c>
       <c r="G44" t="n">
-        <v>379.3635350090594</v>
+        <v>379.3635350090595</v>
       </c>
       <c r="H44" t="n">
-        <v>255.6632427135689</v>
+        <v>255.663242713569</v>
       </c>
       <c r="I44" t="n">
-        <v>10.76275127874968</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.21529414639211</v>
+        <v>60.21529414639217</v>
       </c>
       <c r="T44" t="n">
         <v>169.6602168763537</v>
       </c>
       <c r="U44" t="n">
-        <v>220.17231739426</v>
+        <v>220.1723173942601</v>
       </c>
       <c r="V44" t="n">
         <v>296.9933461732975</v>
@@ -4040,10 +4040,10 @@
         <v>318.4820564205756</v>
       </c>
       <c r="X44" t="n">
-        <v>338.9721883816316</v>
+        <v>338.9721883816317</v>
       </c>
       <c r="Y44" t="n">
-        <v>384.049987081392</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>149.0730678850999</v>
       </c>
       <c r="C46" t="n">
-        <v>136.4879088017904</v>
+        <v>136.4879088017905</v>
       </c>
       <c r="D46" t="n">
-        <v>117.8565607213749</v>
+        <v>117.856560721375</v>
       </c>
       <c r="E46" t="n">
-        <v>115.6750503497317</v>
+        <v>115.6750503497318</v>
       </c>
       <c r="F46" t="n">
-        <v>114.6621357260938</v>
+        <v>114.6621357260939</v>
       </c>
       <c r="G46" t="n">
-        <v>134.9083672116167</v>
+        <v>134.9083672116168</v>
       </c>
       <c r="H46" t="n">
         <v>110.8084560896522</v>
       </c>
       <c r="I46" t="n">
-        <v>54.81157077755525</v>
+        <v>54.81157077755529</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.05248400648891</v>
+        <v>42.05248400648895</v>
       </c>
       <c r="S46" t="n">
         <v>152.761934717782</v>
@@ -4198,7 +4198,7 @@
         <v>255.7640860397536</v>
       </c>
       <c r="X46" t="n">
-        <v>194.9507430921997</v>
+        <v>194.9507430921998</v>
       </c>
       <c r="Y46" t="n">
         <v>187.8257410552574</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0694455640519</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C2" t="n">
-        <v>307.0694455640519</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>307.0694455640519</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E2" t="n">
-        <v>244.5269358890827</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>260.8426337500503</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>260.8426337500503</v>
       </c>
       <c r="H2" t="n">
         <v>229.2118363665377</v>
@@ -4334,13 +4334,13 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4358,22 +4358,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>626.0261199015633</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>626.0261199015633</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="W2" t="n">
-        <v>626.0261199015633</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="X2" t="n">
-        <v>347.0801464648406</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.0801464648406</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.3815266691013</v>
+        <v>335.2002861487693</v>
       </c>
       <c r="C3" t="n">
-        <v>273.3815266691013</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="D3" t="n">
-        <v>273.3815266691013</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="E3" t="n">
-        <v>273.3815266691013</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="F3" t="n">
-        <v>273.3815266691013</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
         <v>22.09252109618844</v>
@@ -4413,46 +4413,46 @@
         <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M3" t="n">
-        <v>405.6478494291521</v>
+        <v>432.8873314017831</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>884.6004721264449</v>
+        <v>933.5141355065804</v>
       </c>
       <c r="T3" t="n">
-        <v>884.6004721264449</v>
+        <v>731.6342355346897</v>
       </c>
       <c r="U3" t="n">
-        <v>884.6004721264449</v>
+        <v>503.4156231688373</v>
       </c>
       <c r="V3" t="n">
-        <v>649.4483638947022</v>
+        <v>503.4156231688373</v>
       </c>
       <c r="W3" t="n">
-        <v>649.4483638947022</v>
+        <v>503.4156231688373</v>
       </c>
       <c r="X3" t="n">
-        <v>441.5968636891693</v>
+        <v>503.4156231688373</v>
       </c>
       <c r="Y3" t="n">
-        <v>441.5968636891693</v>
+        <v>503.4156231688373</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>168.9824685940988</v>
       </c>
       <c r="F4" t="n">
         <v>22.09252109618844</v>
@@ -4507,31 +4507,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.3084793424303</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>602.2450682413823</v>
+      </c>
+      <c r="C5" t="n">
+        <v>323.2990948046595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>323.2990948046595</v>
+      </c>
+      <c r="E5" t="n">
+        <v>323.2990948046595</v>
+      </c>
+      <c r="F5" t="n">
         <v>316.3535940554561</v>
       </c>
-      <c r="C5" t="n">
-        <v>316.3535940554561</v>
-      </c>
-      <c r="D5" t="n">
-        <v>316.3535940554561</v>
-      </c>
-      <c r="E5" t="n">
-        <v>316.3535940554561</v>
-      </c>
-      <c r="F5" t="n">
-        <v>37.40762061873336</v>
-      </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4568,13 +4568,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L5" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
         <v>817.0829279823544</v>
@@ -4589,28 +4589,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U5" t="n">
-        <v>874.2455409289015</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V5" t="n">
-        <v>874.2455409289015</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="W5" t="n">
-        <v>874.2455409289015</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="X5" t="n">
-        <v>595.2995674921788</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="Y5" t="n">
-        <v>595.2995674921788</v>
+        <v>602.2450682413823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.2519730171373</v>
+        <v>424.3536219497969</v>
       </c>
       <c r="C6" t="n">
-        <v>476.7989437360102</v>
+        <v>424.3536219497969</v>
       </c>
       <c r="D6" t="n">
-        <v>327.864534074759</v>
+        <v>275.4192122885457</v>
       </c>
       <c r="E6" t="n">
-        <v>168.6270790693035</v>
+        <v>116.1817572830902</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>116.1817572830902</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>116.1817572830902</v>
       </c>
       <c r="H6" t="n">
         <v>22.09252109618844</v>
@@ -4647,16 +4647,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
-        <v>22.09252109618844</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L6" t="n">
-        <v>268.2479876888894</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M6" t="n">
-        <v>541.6429362542212</v>
+        <v>679.042797994484</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112777</v>
+        <v>679.042797994484</v>
       </c>
       <c r="O6" t="n">
         <v>828.8278839945615</v>
@@ -4668,28 +4668,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="W6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="X6" t="n">
-        <v>1027.227608802159</v>
+        <v>800.3292577348188</v>
       </c>
       <c r="Y6" t="n">
-        <v>819.4673100372054</v>
+        <v>592.568958969865</v>
       </c>
     </row>
     <row r="7">
@@ -4759,7 +4759,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="W7" t="n">
         <v>37.1756025565036</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2605.57772958165</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2386.943062553713</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2133.181277191804</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2133.181277191804</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1780.41262192169</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.4909684781771</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5547855502702</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5547855502702</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5547855502702</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F10" t="n">
-        <v>149.5547855502702</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1963.783428504422</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.517729897672</v>
+        <v>1605.517729897671</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.729477299428</v>
+        <v>1219.729477299427</v>
       </c>
       <c r="F11" t="n">
-        <v>808.7435725098201</v>
+        <v>808.7435725098196</v>
       </c>
       <c r="G11" t="n">
-        <v>394.4784742210354</v>
+        <v>394.478474221035</v>
       </c>
       <c r="H11" t="n">
         <v>105.1631661297159</v>
@@ -5039,28 +5039,28 @@
         <v>94.29170019158495</v>
       </c>
       <c r="J11" t="n">
-        <v>517.7358533153871</v>
+        <v>350.330204295034</v>
       </c>
       <c r="K11" t="n">
-        <v>952.2097180772078</v>
+        <v>784.8040690568547</v>
       </c>
       <c r="L11" t="n">
-        <v>1528.114727979336</v>
+        <v>1360.709078958983</v>
       </c>
       <c r="M11" t="n">
-        <v>2200.589453955206</v>
+        <v>2439.298765978841</v>
       </c>
       <c r="N11" t="n">
-        <v>2888.55933242688</v>
+        <v>3127.268644450515</v>
       </c>
       <c r="O11" t="n">
-        <v>3524.854518891278</v>
+        <v>3763.563830914913</v>
       </c>
       <c r="P11" t="n">
-        <v>4033.416738470265</v>
+        <v>4272.1260504939</v>
       </c>
       <c r="Q11" t="n">
-        <v>4540.803095533486</v>
+        <v>4605.862351207739</v>
       </c>
       <c r="R11" t="n">
         <v>4714.585009579248</v>
@@ -5069,7 +5069,7 @@
         <v>4622.691871757804</v>
       </c>
       <c r="T11" t="n">
-        <v>4420.248306936398</v>
+        <v>4420.248306936399</v>
       </c>
       <c r="U11" t="n">
         <v>4166.782418359532</v>
@@ -5130,16 +5130,16 @@
         <v>993.2230332782372</v>
       </c>
       <c r="N12" t="n">
-        <v>1576.858884500427</v>
+        <v>1448.695255058452</v>
       </c>
       <c r="O12" t="n">
-        <v>1934.243327519639</v>
+        <v>1960.388241209363</v>
       </c>
       <c r="P12" t="n">
-        <v>2325.588994312996</v>
+        <v>2351.73390800272</v>
       </c>
       <c r="Q12" t="n">
-        <v>2537.274012293864</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="R12" t="n">
         <v>2563.418925983588</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>430.5685694916677</v>
+        <v>843.9101407363092</v>
       </c>
       <c r="C13" t="n">
-        <v>261.6323865637609</v>
+        <v>674.9739578084024</v>
       </c>
       <c r="D13" t="n">
-        <v>261.6323865637609</v>
+        <v>524.8573183960666</v>
       </c>
       <c r="E13" t="n">
-        <v>261.6323865637609</v>
+        <v>376.9442248136735</v>
       </c>
       <c r="F13" t="n">
-        <v>261.6323865637609</v>
+        <v>230.0542773157631</v>
       </c>
       <c r="G13" t="n">
-        <v>94.29170019158495</v>
+        <v>230.0542773157631</v>
       </c>
       <c r="H13" t="n">
         <v>94.29170019158495</v>
@@ -5221,28 +5221,28 @@
         <v>2306.952174098808</v>
       </c>
       <c r="R13" t="n">
-        <v>2299.777774941756</v>
+        <v>2306.952174098808</v>
       </c>
       <c r="S13" t="n">
-        <v>2114.403181997696</v>
+        <v>2306.952174098808</v>
       </c>
       <c r="T13" t="n">
-        <v>1894.18393583049</v>
+        <v>2086.732927931601</v>
       </c>
       <c r="U13" t="n">
-        <v>1605.100822606302</v>
+        <v>1797.649814707414</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.416334400416</v>
+        <v>1542.965326501527</v>
       </c>
       <c r="W13" t="n">
-        <v>1060.999164363455</v>
+        <v>1253.548156464566</v>
       </c>
       <c r="X13" t="n">
-        <v>833.0096134654376</v>
+        <v>1025.558605566549</v>
       </c>
       <c r="Y13" t="n">
-        <v>612.2170343219075</v>
+        <v>1025.558605566549</v>
       </c>
     </row>
     <row r="14">
@@ -5258,55 +5258,55 @@
         <v>1963.783428504422</v>
       </c>
       <c r="D14" t="n">
-        <v>1605.517729897671</v>
+        <v>1605.517729897672</v>
       </c>
       <c r="E14" t="n">
-        <v>1219.729477299427</v>
+        <v>1219.729477299428</v>
       </c>
       <c r="F14" t="n">
-        <v>808.7435725098198</v>
+        <v>808.7435725098201</v>
       </c>
       <c r="G14" t="n">
-        <v>394.4784742210352</v>
+        <v>394.4784742210354</v>
       </c>
       <c r="H14" t="n">
-        <v>105.1631661297158</v>
+        <v>105.1631661297159</v>
       </c>
       <c r="I14" t="n">
-        <v>94.29170019158492</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J14" t="n">
-        <v>350.330204295034</v>
+        <v>481.1940689114631</v>
       </c>
       <c r="K14" t="n">
-        <v>784.8040690568547</v>
+        <v>915.6679336732838</v>
       </c>
       <c r="L14" t="n">
-        <v>1360.709078958983</v>
+        <v>1491.572943575412</v>
       </c>
       <c r="M14" t="n">
-        <v>2033.183804934853</v>
+        <v>2164.047669551283</v>
       </c>
       <c r="N14" t="n">
-        <v>2721.153683406527</v>
+        <v>2852.017548022956</v>
       </c>
       <c r="O14" t="n">
-        <v>3734.441049321043</v>
+        <v>3488.312734487354</v>
       </c>
       <c r="P14" t="n">
-        <v>4272.126050493898</v>
+        <v>3996.874954066341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4605.862351207737</v>
+        <v>4540.803095533486</v>
       </c>
       <c r="R14" t="n">
-        <v>4714.585009579246</v>
+        <v>4714.585009579248</v>
       </c>
       <c r="S14" t="n">
-        <v>4622.691871757802</v>
+        <v>4622.691871757804</v>
       </c>
       <c r="T14" t="n">
-        <v>4420.248306936397</v>
+        <v>4420.248306936399</v>
       </c>
       <c r="U14" t="n">
         <v>4166.782418359532</v>
@@ -5349,13 +5349,13 @@
         <v>184.7562553634172</v>
       </c>
       <c r="H15" t="n">
-        <v>98.42629464601751</v>
+        <v>98.42629464601754</v>
       </c>
       <c r="I15" t="n">
-        <v>94.29170019158492</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J15" t="n">
-        <v>227.9686322392552</v>
+        <v>227.9686322392553</v>
       </c>
       <c r="K15" t="n">
         <v>534.5986255821213</v>
@@ -5364,10 +5364,10 @@
         <v>993.2230332782372</v>
       </c>
       <c r="M15" t="n">
-        <v>993.2230332782372</v>
+        <v>1547.772953316065</v>
       </c>
       <c r="N15" t="n">
-        <v>1576.858884500427</v>
+        <v>1547.772953316065</v>
       </c>
       <c r="O15" t="n">
         <v>1934.243327519639</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>618.8805919017507</v>
+        <v>1018.485591788842</v>
       </c>
       <c r="C16" t="n">
-        <v>449.9444089738438</v>
+        <v>849.549408860935</v>
       </c>
       <c r="D16" t="n">
-        <v>323.7238733843953</v>
+        <v>699.4327694485993</v>
       </c>
       <c r="E16" t="n">
-        <v>323.7238733843953</v>
+        <v>551.5196758662062</v>
       </c>
       <c r="F16" t="n">
-        <v>323.7238733843953</v>
+        <v>404.6297283682958</v>
       </c>
       <c r="G16" t="n">
-        <v>323.7238733843953</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="H16" t="n">
-        <v>180.7265315798604</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="I16" t="n">
-        <v>94.29170019158492</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J16" t="n">
         <v>164.5088354774508</v>
@@ -5440,7 +5440,7 @@
         <v>409.7339953173558</v>
       </c>
       <c r="L16" t="n">
-        <v>779.0642064478458</v>
+        <v>779.0642064478459</v>
       </c>
       <c r="M16" t="n">
         <v>1178.860253262732</v>
@@ -5452,34 +5452,34 @@
         <v>1924.083904140058</v>
       </c>
       <c r="P16" t="n">
-        <v>2199.620203052453</v>
+        <v>2199.620203052454</v>
       </c>
       <c r="Q16" t="n">
-        <v>2306.952174098807</v>
+        <v>2306.952174098808</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.405309145952</v>
+        <v>2233.405309145953</v>
       </c>
       <c r="S16" t="n">
-        <v>2048.030716201892</v>
+        <v>2048.030716201893</v>
       </c>
       <c r="T16" t="n">
-        <v>1827.811470034685</v>
+        <v>1937.999299884816</v>
       </c>
       <c r="U16" t="n">
-        <v>1538.728356810499</v>
+        <v>1648.916186660629</v>
       </c>
       <c r="V16" t="n">
-        <v>1538.728356810499</v>
+        <v>1648.916186660629</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.311186773538</v>
+        <v>1648.916186660629</v>
       </c>
       <c r="X16" t="n">
-        <v>1021.321635875521</v>
+        <v>1420.926635762612</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.5290567319904</v>
+        <v>1200.134056619082</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1219.729477299428</v>
       </c>
       <c r="F17" t="n">
-        <v>808.7435725098208</v>
+        <v>808.7435725098202</v>
       </c>
       <c r="G17" t="n">
-        <v>394.4784742210353</v>
+        <v>394.4784742210355</v>
       </c>
       <c r="H17" t="n">
         <v>105.1631661297159</v>
@@ -5513,16 +5513,16 @@
         <v>94.29170019158495</v>
       </c>
       <c r="J17" t="n">
-        <v>350.330204295034</v>
+        <v>517.7358533153871</v>
       </c>
       <c r="K17" t="n">
-        <v>784.8040690568547</v>
+        <v>1190.919030100843</v>
       </c>
       <c r="L17" t="n">
-        <v>1360.709078958983</v>
+        <v>1766.824040002971</v>
       </c>
       <c r="M17" t="n">
-        <v>2033.183804934853</v>
+        <v>2439.298765978841</v>
       </c>
       <c r="N17" t="n">
         <v>3127.268644450515</v>
@@ -5601,19 +5601,19 @@
         <v>993.2230332782372</v>
       </c>
       <c r="M18" t="n">
-        <v>1422.550341368728</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="N18" t="n">
-        <v>1422.550341368728</v>
+        <v>1576.858884500427</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.243327519639</v>
+        <v>1960.388241209363</v>
       </c>
       <c r="P18" t="n">
-        <v>2325.588994312996</v>
+        <v>2351.73390800272</v>
       </c>
       <c r="Q18" t="n">
-        <v>2537.274012293864</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="R18" t="n">
         <v>2563.418925983588</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>364.1961036958642</v>
+        <v>556.3418643363625</v>
       </c>
       <c r="C19" t="n">
-        <v>261.6323865637609</v>
+        <v>387.4056814084556</v>
       </c>
       <c r="D19" t="n">
-        <v>261.6323865637609</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="E19" t="n">
-        <v>261.6323865637609</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="F19" t="n">
-        <v>261.6323865637609</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="G19" t="n">
-        <v>94.29170019158495</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="H19" t="n">
         <v>94.29170019158495</v>
@@ -5698,25 +5698,25 @@
         <v>2233.405309145953</v>
       </c>
       <c r="S19" t="n">
-        <v>2048.030716201893</v>
+        <v>2233.405309145953</v>
       </c>
       <c r="T19" t="n">
-        <v>1827.811470034686</v>
+        <v>2013.186062978746</v>
       </c>
       <c r="U19" t="n">
-        <v>1538.728356810499</v>
+        <v>1724.102949754559</v>
       </c>
       <c r="V19" t="n">
-        <v>1284.043868604612</v>
+        <v>1469.418461548672</v>
       </c>
       <c r="W19" t="n">
-        <v>994.6266985676514</v>
+        <v>1180.001291511712</v>
       </c>
       <c r="X19" t="n">
-        <v>766.637147669634</v>
+        <v>958.7829083101324</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.8445685261039</v>
+        <v>737.9903291666022</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2332.745945444833</v>
+        <v>2332.745945444834</v>
       </c>
       <c r="C20" t="n">
-        <v>1963.783428504421</v>
+        <v>1963.783428504423</v>
       </c>
       <c r="D20" t="n">
-        <v>1605.51772989767</v>
+        <v>1605.517729897672</v>
       </c>
       <c r="E20" t="n">
-        <v>1219.729477299426</v>
+        <v>1219.729477299428</v>
       </c>
       <c r="F20" t="n">
-        <v>808.7435725098185</v>
+        <v>808.7435725098202</v>
       </c>
       <c r="G20" t="n">
-        <v>394.4784742210354</v>
+        <v>394.4784742210355</v>
       </c>
       <c r="H20" t="n">
         <v>105.1631661297159</v>
@@ -5750,52 +5750,52 @@
         <v>94.29170019158495</v>
       </c>
       <c r="J20" t="n">
-        <v>517.7358533153871</v>
+        <v>350.330204295034</v>
       </c>
       <c r="K20" t="n">
-        <v>952.2097180772078</v>
+        <v>1105.708027502308</v>
       </c>
       <c r="L20" t="n">
-        <v>1528.114727979336</v>
+        <v>1681.613037404436</v>
       </c>
       <c r="M20" t="n">
-        <v>2200.589453955206</v>
+        <v>2354.087763380307</v>
       </c>
       <c r="N20" t="n">
-        <v>2888.55933242688</v>
+        <v>3042.05764185198</v>
       </c>
       <c r="O20" t="n">
-        <v>3698.50457524066</v>
+        <v>3763.563830914913</v>
       </c>
       <c r="P20" t="n">
-        <v>4207.066794819647</v>
+        <v>4272.1260504939</v>
       </c>
       <c r="Q20" t="n">
-        <v>4540.803095533486</v>
+        <v>4605.862351207739</v>
       </c>
       <c r="R20" t="n">
         <v>4714.585009579248</v>
       </c>
       <c r="S20" t="n">
-        <v>4622.691871757803</v>
+        <v>4622.691871757804</v>
       </c>
       <c r="T20" t="n">
-        <v>4420.248306936397</v>
+        <v>4420.248306936399</v>
       </c>
       <c r="U20" t="n">
-        <v>4166.782418359531</v>
+        <v>4166.782418359533</v>
       </c>
       <c r="V20" t="n">
-        <v>3835.71953101596</v>
+        <v>3835.719531015962</v>
       </c>
       <c r="W20" t="n">
-        <v>3482.950875745846</v>
+        <v>3482.950875745848</v>
       </c>
       <c r="X20" t="n">
-        <v>3109.485117484766</v>
+        <v>3109.485117484768</v>
       </c>
       <c r="Y20" t="n">
-        <v>2719.345785508955</v>
+        <v>2719.345785508956</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>94.29170019158495</v>
       </c>
       <c r="J21" t="n">
-        <v>94.29170019158495</v>
+        <v>227.9686322392553</v>
       </c>
       <c r="K21" t="n">
-        <v>94.29170019158495</v>
+        <v>534.5986255821213</v>
       </c>
       <c r="L21" t="n">
-        <v>284.3645701087102</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="M21" t="n">
-        <v>838.9144901465382</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="N21" t="n">
-        <v>1422.550341368728</v>
+        <v>1448.695255058452</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.243327519639</v>
+        <v>1960.388241209363</v>
       </c>
       <c r="P21" t="n">
-        <v>2325.588994312996</v>
+        <v>2351.73390800272</v>
       </c>
       <c r="Q21" t="n">
-        <v>2537.274012293864</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="R21" t="n">
         <v>2563.418925983588</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.1961036958642</v>
+        <v>769.789942807131</v>
       </c>
       <c r="C22" t="n">
-        <v>261.6323865637609</v>
+        <v>769.789942807131</v>
       </c>
       <c r="D22" t="n">
-        <v>261.6323865637609</v>
+        <v>619.6733033947952</v>
       </c>
       <c r="E22" t="n">
-        <v>261.6323865637609</v>
+        <v>471.7602098124021</v>
       </c>
       <c r="F22" t="n">
-        <v>261.6323865637609</v>
+        <v>324.8702623144917</v>
       </c>
       <c r="G22" t="n">
-        <v>94.29170019158495</v>
+        <v>180.7265315798604</v>
       </c>
       <c r="H22" t="n">
-        <v>94.29170019158495</v>
+        <v>180.7265315798604</v>
       </c>
       <c r="I22" t="n">
         <v>94.29170019158495</v>
@@ -5935,25 +5935,25 @@
         <v>2233.405309145953</v>
       </c>
       <c r="S22" t="n">
-        <v>2048.030716201893</v>
+        <v>2233.405309145953</v>
       </c>
       <c r="T22" t="n">
-        <v>1827.811470034686</v>
+        <v>2233.405309145953</v>
       </c>
       <c r="U22" t="n">
-        <v>1538.728356810499</v>
+        <v>1944.322195921766</v>
       </c>
       <c r="V22" t="n">
-        <v>1284.043868604612</v>
+        <v>1689.637707715879</v>
       </c>
       <c r="W22" t="n">
-        <v>994.6266985676514</v>
+        <v>1400.220537678918</v>
       </c>
       <c r="X22" t="n">
-        <v>766.637147669634</v>
+        <v>1172.230986780901</v>
       </c>
       <c r="Y22" t="n">
-        <v>545.8445685261039</v>
+        <v>951.4384076373707</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2332.745945444834</v>
       </c>
       <c r="C23" t="n">
-        <v>1963.783428504422</v>
+        <v>1963.783428504423</v>
       </c>
       <c r="D23" t="n">
-        <v>1605.517729897671</v>
+        <v>1605.517729897672</v>
       </c>
       <c r="E23" t="n">
-        <v>1219.729477299427</v>
+        <v>1219.729477299428</v>
       </c>
       <c r="F23" t="n">
-        <v>808.7435725098196</v>
+        <v>808.7435725098202</v>
       </c>
       <c r="G23" t="n">
-        <v>394.478474221035</v>
+        <v>394.4784742210355</v>
       </c>
       <c r="H23" t="n">
         <v>105.1631661297159</v>
       </c>
       <c r="I23" t="n">
-        <v>94.29170019158494</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J23" t="n">
-        <v>350.330204295034</v>
+        <v>517.7358533153871</v>
       </c>
       <c r="K23" t="n">
-        <v>784.8040690568547</v>
+        <v>952.2097180772078</v>
       </c>
       <c r="L23" t="n">
-        <v>1360.709078958983</v>
+        <v>1528.114727979336</v>
       </c>
       <c r="M23" t="n">
-        <v>2033.183804934853</v>
+        <v>2200.589453955206</v>
       </c>
       <c r="N23" t="n">
-        <v>2721.153683406527</v>
+        <v>2888.55933242688</v>
       </c>
       <c r="O23" t="n">
-        <v>3357.448869870925</v>
+        <v>3524.854518891278</v>
       </c>
       <c r="P23" t="n">
-        <v>3996.87495406634</v>
+        <v>4033.416738470265</v>
       </c>
       <c r="Q23" t="n">
-        <v>4540.803095533485</v>
+        <v>4540.803095533486</v>
       </c>
       <c r="R23" t="n">
-        <v>4714.585009579247</v>
+        <v>4714.585009579248</v>
       </c>
       <c r="S23" t="n">
-        <v>4622.691871757803</v>
+        <v>4622.691871757804</v>
       </c>
       <c r="T23" t="n">
-        <v>4420.248306936397</v>
+        <v>4420.248306936399</v>
       </c>
       <c r="U23" t="n">
-        <v>4166.782418359532</v>
+        <v>4166.782418359533</v>
       </c>
       <c r="V23" t="n">
-        <v>3835.719531015961</v>
+        <v>3835.719531015962</v>
       </c>
       <c r="W23" t="n">
-        <v>3482.950875745847</v>
+        <v>3482.950875745848</v>
       </c>
       <c r="X23" t="n">
-        <v>3109.485117484767</v>
+        <v>3109.485117484768</v>
       </c>
       <c r="Y23" t="n">
-        <v>2719.345785508955</v>
+        <v>2719.345785508956</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>184.7562553634172</v>
       </c>
       <c r="H24" t="n">
-        <v>98.42629464601752</v>
+        <v>98.42629464601754</v>
       </c>
       <c r="I24" t="n">
-        <v>94.29170019158494</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J24" t="n">
-        <v>227.9686322392552</v>
+        <v>227.9686322392553</v>
       </c>
       <c r="K24" t="n">
-        <v>227.9686322392552</v>
+        <v>534.5986255821213</v>
       </c>
       <c r="L24" t="n">
-        <v>284.3645701087102</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="M24" t="n">
-        <v>838.9144901465382</v>
+        <v>1547.772953316065</v>
       </c>
       <c r="N24" t="n">
-        <v>1422.550341368728</v>
+        <v>1547.772953316065</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.243327519639</v>
+        <v>1960.388241209363</v>
       </c>
       <c r="P24" t="n">
-        <v>2325.588994312996</v>
+        <v>2351.73390800272</v>
       </c>
       <c r="Q24" t="n">
-        <v>2537.274012293864</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="R24" t="n">
         <v>2563.418925983588</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.4274568546055</v>
+        <v>721.4790048785958</v>
       </c>
       <c r="C25" t="n">
-        <v>523.4912739266986</v>
+        <v>552.5428219506889</v>
       </c>
       <c r="D25" t="n">
-        <v>373.3746345143628</v>
+        <v>552.5428219506889</v>
       </c>
       <c r="E25" t="n">
-        <v>373.3746345143628</v>
+        <v>404.6297283682958</v>
       </c>
       <c r="F25" t="n">
-        <v>373.3746345143628</v>
+        <v>404.6297283682958</v>
       </c>
       <c r="G25" t="n">
-        <v>206.0339481421869</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="H25" t="n">
-        <v>94.29170019158494</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="I25" t="n">
-        <v>94.29170019158494</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J25" t="n">
         <v>164.5088354774508</v>
@@ -6151,7 +6151,7 @@
         <v>409.7339953173558</v>
       </c>
       <c r="L25" t="n">
-        <v>779.0642064478458</v>
+        <v>779.0642064478459</v>
       </c>
       <c r="M25" t="n">
         <v>1178.860253262732</v>
@@ -6163,34 +6163,34 @@
         <v>1924.083904140058</v>
       </c>
       <c r="P25" t="n">
-        <v>2199.620203052453</v>
+        <v>2199.620203052454</v>
       </c>
       <c r="Q25" t="n">
-        <v>2306.952174098807</v>
+        <v>2306.952174098808</v>
       </c>
       <c r="R25" t="n">
-        <v>2306.952174098807</v>
+        <v>2233.405309145953</v>
       </c>
       <c r="S25" t="n">
-        <v>2121.577581154747</v>
+        <v>2048.030716201893</v>
       </c>
       <c r="T25" t="n">
-        <v>1901.35833498754</v>
+        <v>1827.811470034686</v>
       </c>
       <c r="U25" t="n">
-        <v>1612.275221763353</v>
+        <v>1538.728356810499</v>
       </c>
       <c r="V25" t="n">
-        <v>1612.275221763353</v>
+        <v>1284.043868604612</v>
       </c>
       <c r="W25" t="n">
-        <v>1322.858051726393</v>
+        <v>994.6266985676514</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.868500828375</v>
+        <v>942.2715840221259</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.0759216848452</v>
+        <v>721.4790048785958</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2332.745945444834</v>
       </c>
       <c r="C26" t="n">
-        <v>1963.783428504423</v>
+        <v>1963.783428504422</v>
       </c>
       <c r="D26" t="n">
-        <v>1605.517729897673</v>
+        <v>1605.517729897671</v>
       </c>
       <c r="E26" t="n">
-        <v>1219.729477299429</v>
+        <v>1219.729477299427</v>
       </c>
       <c r="F26" t="n">
-        <v>808.7435725098208</v>
+        <v>808.7435725098201</v>
       </c>
       <c r="G26" t="n">
-        <v>394.4784742210359</v>
+        <v>394.4784742210354</v>
       </c>
       <c r="H26" t="n">
         <v>105.1631661297159</v>
@@ -6224,28 +6224,28 @@
         <v>94.29170019158495</v>
       </c>
       <c r="J26" t="n">
-        <v>517.7358533153871</v>
+        <v>350.330204295034</v>
       </c>
       <c r="K26" t="n">
-        <v>952.2097180772078</v>
+        <v>784.8040690568547</v>
       </c>
       <c r="L26" t="n">
-        <v>1528.114727979336</v>
+        <v>1360.709078958983</v>
       </c>
       <c r="M26" t="n">
-        <v>2439.298765978841</v>
+        <v>2164.047669551283</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.268644450515</v>
+        <v>2852.017548022956</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.563830914913</v>
+        <v>3488.312734487354</v>
       </c>
       <c r="P26" t="n">
-        <v>4272.1260504939</v>
+        <v>3996.874954066341</v>
       </c>
       <c r="Q26" t="n">
-        <v>4605.862351207739</v>
+        <v>4540.803095533486</v>
       </c>
       <c r="R26" t="n">
         <v>4714.585009579248</v>
@@ -6254,22 +6254,22 @@
         <v>4622.691871757804</v>
       </c>
       <c r="T26" t="n">
-        <v>4420.248306936399</v>
+        <v>4420.248306936398</v>
       </c>
       <c r="U26" t="n">
-        <v>4166.782418359533</v>
+        <v>4166.782418359532</v>
       </c>
       <c r="V26" t="n">
-        <v>3835.719531015962</v>
+        <v>3835.719531015961</v>
       </c>
       <c r="W26" t="n">
-        <v>3482.950875745848</v>
+        <v>3482.950875745847</v>
       </c>
       <c r="X26" t="n">
-        <v>3109.485117484768</v>
+        <v>3109.485117484767</v>
       </c>
       <c r="Y26" t="n">
-        <v>2719.345785508956</v>
+        <v>2719.345785508955</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>94.29170019158495</v>
       </c>
       <c r="J27" t="n">
-        <v>94.29170019158495</v>
+        <v>227.9686322392553</v>
       </c>
       <c r="K27" t="n">
-        <v>94.29170019158495</v>
+        <v>534.5986255821213</v>
       </c>
       <c r="L27" t="n">
-        <v>310.5094837984346</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="M27" t="n">
-        <v>865.0594038362627</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="N27" t="n">
-        <v>1448.695255058452</v>
+        <v>1422.550341368728</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.388241209363</v>
+        <v>1934.243327519639</v>
       </c>
       <c r="P27" t="n">
-        <v>2351.73390800272</v>
+        <v>2325.588994312996</v>
       </c>
       <c r="Q27" t="n">
-        <v>2563.418925983588</v>
+        <v>2537.274012293864</v>
       </c>
       <c r="R27" t="n">
         <v>2563.418925983588</v>
@@ -6361,19 +6361,19 @@
         <v>364.1961036958642</v>
       </c>
       <c r="C28" t="n">
-        <v>195.2599207679573</v>
+        <v>364.1961036958642</v>
       </c>
       <c r="D28" t="n">
-        <v>195.2599207679573</v>
+        <v>364.1961036958642</v>
       </c>
       <c r="E28" t="n">
-        <v>195.2599207679573</v>
+        <v>364.1961036958642</v>
       </c>
       <c r="F28" t="n">
-        <v>195.2599207679573</v>
+        <v>364.1961036958642</v>
       </c>
       <c r="G28" t="n">
-        <v>94.29170019158495</v>
+        <v>237.2890419961199</v>
       </c>
       <c r="H28" t="n">
         <v>94.29170019158495</v>
@@ -6440,7 +6440,7 @@
         <v>2332.745945444834</v>
       </c>
       <c r="C29" t="n">
-        <v>1963.783428504423</v>
+        <v>1963.783428504422</v>
       </c>
       <c r="D29" t="n">
         <v>1605.517729897672</v>
@@ -6449,61 +6449,61 @@
         <v>1219.729477299428</v>
       </c>
       <c r="F29" t="n">
-        <v>808.7435725098206</v>
+        <v>808.7435725098202</v>
       </c>
       <c r="G29" t="n">
-        <v>394.4784742210359</v>
+        <v>394.4784742210355</v>
       </c>
       <c r="H29" t="n">
-        <v>105.163166129716</v>
+        <v>105.1631661297159</v>
       </c>
       <c r="I29" t="n">
-        <v>94.29170019158497</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J29" t="n">
         <v>517.7358533153871</v>
       </c>
       <c r="K29" t="n">
-        <v>1190.919030100843</v>
+        <v>952.2097180772078</v>
       </c>
       <c r="L29" t="n">
-        <v>1766.824040002972</v>
+        <v>1528.114727979336</v>
       </c>
       <c r="M29" t="n">
-        <v>2439.298765978842</v>
+        <v>2200.589453955206</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.268644450516</v>
+        <v>2888.55933242688</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.563830914914</v>
+        <v>3524.854518891278</v>
       </c>
       <c r="P29" t="n">
-        <v>4272.126050493901</v>
+        <v>4272.1260504939</v>
       </c>
       <c r="Q29" t="n">
-        <v>4605.86235120774</v>
+        <v>4605.862351207739</v>
       </c>
       <c r="R29" t="n">
         <v>4714.585009579248</v>
       </c>
       <c r="S29" t="n">
-        <v>4622.691871757805</v>
+        <v>4622.691871757804</v>
       </c>
       <c r="T29" t="n">
-        <v>4420.248306936399</v>
+        <v>4420.248306936398</v>
       </c>
       <c r="U29" t="n">
-        <v>4166.782418359533</v>
+        <v>4166.782418359532</v>
       </c>
       <c r="V29" t="n">
-        <v>3835.719531015962</v>
+        <v>3835.719531015961</v>
       </c>
       <c r="W29" t="n">
-        <v>3482.950875745848</v>
+        <v>3482.950875745847</v>
       </c>
       <c r="X29" t="n">
-        <v>3109.485117484768</v>
+        <v>3109.485117484767</v>
       </c>
       <c r="Y29" t="n">
         <v>2719.345785508956</v>
@@ -6534,34 +6534,34 @@
         <v>184.7562553634172</v>
       </c>
       <c r="H30" t="n">
-        <v>98.42629464601755</v>
+        <v>98.42629464601754</v>
       </c>
       <c r="I30" t="n">
-        <v>94.29170019158497</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J30" t="n">
-        <v>94.29170019158497</v>
+        <v>227.9686322392553</v>
       </c>
       <c r="K30" t="n">
-        <v>94.29170019158497</v>
+        <v>534.5986255821213</v>
       </c>
       <c r="L30" t="n">
-        <v>284.3645701087102</v>
+        <v>993.2230332782372</v>
       </c>
       <c r="M30" t="n">
-        <v>838.9144901465382</v>
+        <v>1547.772953316065</v>
       </c>
       <c r="N30" t="n">
-        <v>1422.550341368728</v>
+        <v>2131.408804538255</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.243327519639</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="P30" t="n">
-        <v>2325.588994312996</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="Q30" t="n">
-        <v>2537.274012293864</v>
+        <v>2563.418925983588</v>
       </c>
       <c r="R30" t="n">
         <v>2563.418925983588</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>491.0645597565713</v>
+        <v>364.1961036958642</v>
       </c>
       <c r="C31" t="n">
-        <v>491.0645597565713</v>
+        <v>364.1961036958642</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0645597565713</v>
+        <v>242.2047937739781</v>
       </c>
       <c r="E31" t="n">
-        <v>491.0645597565713</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="F31" t="n">
-        <v>491.0645597565713</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="G31" t="n">
-        <v>323.7238733843953</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="H31" t="n">
-        <v>180.7265315798604</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="I31" t="n">
-        <v>94.29170019158497</v>
+        <v>94.29170019158495</v>
       </c>
       <c r="J31" t="n">
-        <v>164.5088354774509</v>
+        <v>164.5088354774508</v>
       </c>
       <c r="K31" t="n">
         <v>409.7339953173558</v>
@@ -6649,22 +6649,22 @@
         <v>2048.030716201893</v>
       </c>
       <c r="T31" t="n">
-        <v>1954.679926095393</v>
+        <v>1827.811470034686</v>
       </c>
       <c r="U31" t="n">
-        <v>1665.596812871206</v>
+        <v>1538.728356810499</v>
       </c>
       <c r="V31" t="n">
-        <v>1410.912324665319</v>
+        <v>1284.043868604612</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.495154628358</v>
+        <v>994.6266985676514</v>
       </c>
       <c r="X31" t="n">
-        <v>893.5056037303411</v>
+        <v>766.637147669634</v>
       </c>
       <c r="Y31" t="n">
-        <v>672.713024586811</v>
+        <v>545.8445685261039</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2166.899791016527</v>
+        <v>2138.040234731502</v>
       </c>
       <c r="C32" t="n">
-        <v>1829.006882456759</v>
+        <v>1800.147326171734</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.810792230652</v>
+        <v>1472.951235945628</v>
       </c>
       <c r="E32" t="n">
-        <v>1147.092148013052</v>
+        <v>1118.232591728027</v>
       </c>
       <c r="F32" t="n">
-        <v>736.1062432234442</v>
+        <v>738.3162953190633</v>
       </c>
       <c r="G32" t="n">
-        <v>352.9107533153032</v>
+        <v>355.1208054109225</v>
       </c>
       <c r="H32" t="n">
-        <v>94.66505360462747</v>
+        <v>96.87510570024681</v>
       </c>
       <c r="I32" t="n">
         <v>86.00363976211582</v>
@@ -6731,19 +6731,19 @@
         <v>4067.984502224229</v>
       </c>
       <c r="U32" t="n">
-        <v>3845.588222028006</v>
+        <v>3845.588222028007</v>
       </c>
       <c r="V32" t="n">
-        <v>3545.594943065079</v>
+        <v>3516.735386780054</v>
       </c>
       <c r="W32" t="n">
-        <v>3223.895896175609</v>
+        <v>3195.036339890584</v>
       </c>
       <c r="X32" t="n">
-        <v>2881.499746295173</v>
+        <v>2852.640190010148</v>
       </c>
       <c r="Y32" t="n">
-        <v>2522.430022700005</v>
+        <v>2493.57046641498</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>86.00363976211582</v>
       </c>
       <c r="J33" t="n">
-        <v>86.00363976211582</v>
+        <v>219.6805718097861</v>
       </c>
       <c r="K33" t="n">
-        <v>86.00363976211582</v>
+        <v>526.3105651526521</v>
       </c>
       <c r="L33" t="n">
-        <v>276.076509679241</v>
+        <v>984.934972848768</v>
       </c>
       <c r="M33" t="n">
-        <v>830.6264297170691</v>
+        <v>1539.484892886596</v>
       </c>
       <c r="N33" t="n">
-        <v>1414.262280939259</v>
+        <v>2123.120744108786</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.955267090169</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.300933883526</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="Q33" t="n">
-        <v>2528.985951864394</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="R33" t="n">
         <v>2555.130865554119</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.1451040831406</v>
+        <v>879.1451040831412</v>
       </c>
       <c r="C34" t="n">
-        <v>741.2785295358775</v>
+        <v>741.2785295358781</v>
       </c>
       <c r="D34" t="n">
-        <v>622.2314985041857</v>
+        <v>622.2314985041862</v>
       </c>
       <c r="E34" t="n">
-        <v>505.3880133024364</v>
+        <v>505.388013302437</v>
       </c>
       <c r="F34" t="n">
-        <v>389.5676741851698</v>
+        <v>389.5676741851705</v>
       </c>
       <c r="G34" t="n">
-        <v>253.2965961936385</v>
+        <v>253.2965961936384</v>
       </c>
       <c r="H34" t="n">
         <v>141.3688627697474</v>
@@ -6856,13 +6856,13 @@
         <v>86.00363976211582</v>
       </c>
       <c r="J34" t="n">
-        <v>186.6720982218507</v>
+        <v>186.6720982218508</v>
       </c>
       <c r="K34" t="n">
         <v>462.3485812356247</v>
       </c>
       <c r="L34" t="n">
-        <v>862.1301155399838</v>
+        <v>862.1301155399839</v>
       </c>
       <c r="M34" t="n">
         <v>1292.377485528739</v>
@@ -6892,7 +6892,7 @@
         <v>1898.329315294557</v>
       </c>
       <c r="V34" t="n">
-        <v>1674.714435469313</v>
+        <v>1674.714435469314</v>
       </c>
       <c r="W34" t="n">
         <v>1416.366873812997</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2166.899791016527</v>
+        <v>2127.168768793371</v>
       </c>
       <c r="C35" t="n">
-        <v>1829.006882456759</v>
+        <v>1789.275860233603</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.810792230653</v>
+        <v>1462.079770007496</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.092148013052</v>
+        <v>1107.361125789896</v>
       </c>
       <c r="F35" t="n">
-        <v>767.1758516040886</v>
+        <v>727.4448293809323</v>
       </c>
       <c r="G35" t="n">
-        <v>383.9803616959477</v>
+        <v>344.2493394727915</v>
       </c>
       <c r="H35" t="n">
-        <v>96.87510570024678</v>
+        <v>86.0036397621158</v>
       </c>
       <c r="I35" t="n">
         <v>86.0036397621158</v>
@@ -6971,16 +6971,16 @@
         <v>3845.588222028006</v>
       </c>
       <c r="V35" t="n">
-        <v>3545.594943065079</v>
+        <v>3536.933529222567</v>
       </c>
       <c r="W35" t="n">
-        <v>3223.895896175609</v>
+        <v>3184.164873952453</v>
       </c>
       <c r="X35" t="n">
-        <v>2881.499746295173</v>
+        <v>2841.768724072017</v>
       </c>
       <c r="Y35" t="n">
-        <v>2522.430022700005</v>
+        <v>2482.699000476849</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>86.0036397621158</v>
       </c>
       <c r="J36" t="n">
-        <v>86.0036397621158</v>
+        <v>219.6805718097861</v>
       </c>
       <c r="K36" t="n">
-        <v>392.6336331049818</v>
+        <v>526.3105651526521</v>
       </c>
       <c r="L36" t="n">
-        <v>851.2580408010976</v>
+        <v>984.934972848768</v>
       </c>
       <c r="M36" t="n">
-        <v>1405.807960838926</v>
+        <v>1539.484892886596</v>
       </c>
       <c r="N36" t="n">
-        <v>1989.443812061115</v>
+        <v>2123.120744108786</v>
       </c>
       <c r="O36" t="n">
-        <v>2501.136798212026</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="P36" t="n">
         <v>2555.130865554119</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.1451040831414</v>
+        <v>879.145104083141</v>
       </c>
       <c r="C37" t="n">
-        <v>741.2785295358783</v>
+        <v>741.278529535878</v>
       </c>
       <c r="D37" t="n">
-        <v>622.2314985041864</v>
+        <v>622.2314985041861</v>
       </c>
       <c r="E37" t="n">
-        <v>505.3880133024372</v>
+        <v>505.3880133024369</v>
       </c>
       <c r="F37" t="n">
-        <v>389.5676741851707</v>
+        <v>389.5676741851704</v>
       </c>
       <c r="G37" t="n">
         <v>253.2965961936384</v>
@@ -7099,10 +7099,10 @@
         <v>462.3485812356247</v>
       </c>
       <c r="L37" t="n">
-        <v>862.1301155399838</v>
+        <v>862.1301155399835</v>
       </c>
       <c r="M37" t="n">
-        <v>1292.377485528739</v>
+        <v>1292.377485528738</v>
       </c>
       <c r="N37" t="n">
         <v>1718.553215534191</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2135.830182635883</v>
+        <v>2166.899791016527</v>
       </c>
       <c r="C38" t="n">
-        <v>1797.937274076115</v>
+        <v>1829.006882456759</v>
       </c>
       <c r="D38" t="n">
-        <v>1470.741183850008</v>
+        <v>1501.810792230652</v>
       </c>
       <c r="E38" t="n">
-        <v>1116.022539632408</v>
+        <v>1147.092148013052</v>
       </c>
       <c r="F38" t="n">
-        <v>736.1062432234442</v>
+        <v>767.1758516040879</v>
       </c>
       <c r="G38" t="n">
-        <v>352.9107533153032</v>
+        <v>383.980361695947</v>
       </c>
       <c r="H38" t="n">
-        <v>94.66505360462747</v>
+        <v>96.87510570024681</v>
       </c>
       <c r="I38" t="n">
         <v>86.00363976211582</v>
@@ -7205,19 +7205,19 @@
         <v>4067.984502224229</v>
       </c>
       <c r="U38" t="n">
-        <v>3814.518613647363</v>
+        <v>3845.588222028006</v>
       </c>
       <c r="V38" t="n">
-        <v>3514.525334684436</v>
+        <v>3545.594943065079</v>
       </c>
       <c r="W38" t="n">
-        <v>3192.826287794965</v>
+        <v>3223.895896175609</v>
       </c>
       <c r="X38" t="n">
-        <v>2850.430137914529</v>
+        <v>2881.499746295173</v>
       </c>
       <c r="Y38" t="n">
-        <v>2491.360414319361</v>
+        <v>2522.430022700005</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>86.00363976211582</v>
       </c>
       <c r="J39" t="n">
-        <v>86.00363976211582</v>
+        <v>219.6805718097861</v>
       </c>
       <c r="K39" t="n">
-        <v>86.00363976211582</v>
+        <v>526.3105651526521</v>
       </c>
       <c r="L39" t="n">
-        <v>276.076509679241</v>
+        <v>984.934972848768</v>
       </c>
       <c r="M39" t="n">
-        <v>830.6264297170691</v>
+        <v>1539.484892886596</v>
       </c>
       <c r="N39" t="n">
-        <v>1414.262280939259</v>
+        <v>2123.120744108786</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.955267090169</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.300933883526</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="Q39" t="n">
-        <v>2528.985951864394</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="R39" t="n">
         <v>2555.130865554119</v>
@@ -7321,16 +7321,16 @@
         <v>389.5676741851705</v>
       </c>
       <c r="G40" t="n">
-        <v>253.2965961936385</v>
+        <v>253.2965961936384</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3688627697474</v>
+        <v>141.3688627697472</v>
       </c>
       <c r="I40" t="n">
         <v>86.00363976211582</v>
       </c>
       <c r="J40" t="n">
-        <v>186.6720982218508</v>
+        <v>186.6720982218507</v>
       </c>
       <c r="K40" t="n">
         <v>462.3485812356247</v>
@@ -7360,7 +7360,7 @@
         <v>2345.492457924663</v>
       </c>
       <c r="T40" t="n">
-        <v>2156.3428201381</v>
+        <v>2156.342820138101</v>
       </c>
       <c r="U40" t="n">
         <v>1898.329315294557</v>
@@ -7372,7 +7372,7 @@
         <v>1416.366873812997</v>
       </c>
       <c r="X40" t="n">
-        <v>1219.446931295623</v>
+        <v>1219.446931295624</v>
       </c>
       <c r="Y40" t="n">
         <v>1029.723960532737</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2127.168768793371</v>
+        <v>2135.830182635883</v>
       </c>
       <c r="C41" t="n">
-        <v>1789.275860233603</v>
+        <v>1797.937274076115</v>
       </c>
       <c r="D41" t="n">
-        <v>1462.079770007497</v>
+        <v>1470.741183850008</v>
       </c>
       <c r="E41" t="n">
-        <v>1107.361125789896</v>
+        <v>1116.022539632408</v>
       </c>
       <c r="F41" t="n">
-        <v>727.4448293809326</v>
+        <v>736.1062432234442</v>
       </c>
       <c r="G41" t="n">
-        <v>344.2493394727916</v>
+        <v>352.9107533153032</v>
       </c>
       <c r="H41" t="n">
-        <v>86.00363976211582</v>
+        <v>94.66505360462747</v>
       </c>
       <c r="I41" t="n">
         <v>86.00363976211582</v>
@@ -7445,16 +7445,16 @@
         <v>3845.588222028006</v>
       </c>
       <c r="V41" t="n">
-        <v>3514.525334684436</v>
+        <v>3545.594943065079</v>
       </c>
       <c r="W41" t="n">
-        <v>3184.164873952453</v>
+        <v>3223.895896175609</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.768724072017</v>
+        <v>2881.499746295173</v>
       </c>
       <c r="Y41" t="n">
-        <v>2482.69900047685</v>
+        <v>2491.360414319361</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>86.00363976211582</v>
       </c>
       <c r="J42" t="n">
-        <v>86.00363976211582</v>
+        <v>219.6805718097861</v>
       </c>
       <c r="K42" t="n">
-        <v>392.6336331049818</v>
+        <v>526.3105651526521</v>
       </c>
       <c r="L42" t="n">
-        <v>851.2580408010976</v>
+        <v>984.934972848768</v>
       </c>
       <c r="M42" t="n">
-        <v>1405.807960838926</v>
+        <v>1539.484892886596</v>
       </c>
       <c r="N42" t="n">
-        <v>1989.443812061115</v>
+        <v>2123.120744108786</v>
       </c>
       <c r="O42" t="n">
-        <v>2501.136798212026</v>
+        <v>2555.130865554119</v>
       </c>
       <c r="P42" t="n">
         <v>2555.130865554119</v>
@@ -7549,16 +7549,16 @@
         <v>741.2785295358783</v>
       </c>
       <c r="D43" t="n">
-        <v>622.2314985041864</v>
+        <v>622.2314985041863</v>
       </c>
       <c r="E43" t="n">
-        <v>505.3880133024372</v>
+        <v>505.3880133024371</v>
       </c>
       <c r="F43" t="n">
-        <v>389.5676741851706</v>
+        <v>389.5676741851705</v>
       </c>
       <c r="G43" t="n">
-        <v>253.2965961936385</v>
+        <v>253.2965961936384</v>
       </c>
       <c r="H43" t="n">
         <v>141.3688627697474</v>
@@ -7570,22 +7570,22 @@
         <v>186.6720982218507</v>
       </c>
       <c r="K43" t="n">
-        <v>462.3485812356246</v>
+        <v>462.3485812356247</v>
       </c>
       <c r="L43" t="n">
-        <v>862.1301155399836</v>
+        <v>862.1301155399838</v>
       </c>
       <c r="M43" t="n">
         <v>1292.377485528739</v>
       </c>
       <c r="N43" t="n">
-        <v>1718.553215534192</v>
+        <v>1718.553215534191</v>
       </c>
       <c r="O43" t="n">
-        <v>2098.503782753804</v>
+        <v>2098.503782753803</v>
       </c>
       <c r="P43" t="n">
-        <v>2404.491404840068</v>
+        <v>2404.491404840067</v>
       </c>
       <c r="Q43" t="n">
         <v>2542.27469906029</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2138.040234731502</v>
+        <v>2135.830182635883</v>
       </c>
       <c r="C44" t="n">
-        <v>1800.147326171734</v>
+        <v>1789.275860233603</v>
       </c>
       <c r="D44" t="n">
-        <v>1472.951235945628</v>
+        <v>1462.079770007497</v>
       </c>
       <c r="E44" t="n">
-        <v>1118.232591728027</v>
+        <v>1107.361125789896</v>
       </c>
       <c r="F44" t="n">
-        <v>738.3162953190633</v>
+        <v>727.4448293809326</v>
       </c>
       <c r="G44" t="n">
-        <v>355.1208054109225</v>
+        <v>344.2493394727916</v>
       </c>
       <c r="H44" t="n">
-        <v>96.87510570024681</v>
+        <v>86.00363976211582</v>
       </c>
       <c r="I44" t="n">
         <v>86.00363976211582</v>
@@ -7649,7 +7649,7 @@
         <v>342.0421438655649</v>
       </c>
       <c r="K44" t="n">
-        <v>776.5160086273856</v>
+        <v>776.5160086273862</v>
       </c>
       <c r="L44" t="n">
         <v>1352.421018529515</v>
@@ -7679,19 +7679,19 @@
         <v>4067.984502224229</v>
       </c>
       <c r="U44" t="n">
-        <v>3845.588222028007</v>
+        <v>3845.588222028006</v>
       </c>
       <c r="V44" t="n">
-        <v>3545.59494306508</v>
+        <v>3545.594943065079</v>
       </c>
       <c r="W44" t="n">
-        <v>3223.89589617561</v>
+        <v>3223.895896175609</v>
       </c>
       <c r="X44" t="n">
-        <v>2881.499746295174</v>
+        <v>2881.499746295173</v>
       </c>
       <c r="Y44" t="n">
-        <v>2493.57046641498</v>
+        <v>2491.360414319361</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>86.00363976211582</v>
       </c>
       <c r="J45" t="n">
-        <v>219.6805718097861</v>
+        <v>86.00363976211582</v>
       </c>
       <c r="K45" t="n">
-        <v>526.3105651526521</v>
+        <v>392.6336331049818</v>
       </c>
       <c r="L45" t="n">
-        <v>984.934972848768</v>
+        <v>851.2580408010976</v>
       </c>
       <c r="M45" t="n">
-        <v>1539.484892886596</v>
+        <v>1405.807960838926</v>
       </c>
       <c r="N45" t="n">
-        <v>2123.120744108786</v>
+        <v>1989.443812061115</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.130865554119</v>
+        <v>2501.136798212026</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.130865554119</v>
+        <v>2501.136798212026</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.130865554119</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.1451040831412</v>
+        <v>879.1451040831414</v>
       </c>
       <c r="C46" t="n">
-        <v>741.2785295358781</v>
+        <v>741.2785295358783</v>
       </c>
       <c r="D46" t="n">
-        <v>622.2314985041862</v>
+        <v>622.2314985041864</v>
       </c>
       <c r="E46" t="n">
-        <v>505.3880133024369</v>
+        <v>505.3880133024372</v>
       </c>
       <c r="F46" t="n">
-        <v>389.5676741851705</v>
+        <v>389.5676741851706</v>
       </c>
       <c r="G46" t="n">
-        <v>253.2965961936384</v>
+        <v>253.2965961936385</v>
       </c>
       <c r="H46" t="n">
-        <v>141.3688627697473</v>
+        <v>141.3688627697474</v>
       </c>
       <c r="I46" t="n">
         <v>86.00363976211582</v>
       </c>
       <c r="J46" t="n">
-        <v>186.6720982218507</v>
+        <v>186.6720982218506</v>
       </c>
       <c r="K46" t="n">
-        <v>462.3485812356241</v>
+        <v>462.3485812356246</v>
       </c>
       <c r="L46" t="n">
-        <v>862.1301155399832</v>
+        <v>862.1301155399835</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.377485528738</v>
+        <v>1292.377485528739</v>
       </c>
       <c r="N46" t="n">
         <v>1718.553215534191</v>
@@ -7846,7 +7846,7 @@
         <v>1416.366873812997</v>
       </c>
       <c r="X46" t="n">
-        <v>1219.446931295623</v>
+        <v>1219.446931295624</v>
       </c>
       <c r="Y46" t="n">
         <v>1029.723960532737</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>270.015839604924</v>
+        <v>322.2123737917331</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>132.6470650341471</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>275.9716853542989</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>410.2171323676646</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.404097322608</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>132.1857218347768</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>29.4169511049173</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>241.1205171955906</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>410.2171323676648</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>175.4040973226081</v>
+        <v>86.07171979650002</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>132.1857218347758</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>175.404097322608</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>241.1205171955907</v>
+        <v>132.1857218347768</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>241.1205171955916</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>241.1205171955908</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>320.0132854940423</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>306.7184574846235</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>162.3888415712485</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6672795084542</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5673683864896</v>
+        <v>7.162417033553226</v>
       </c>
       <c r="I13" t="n">
         <v>85.57048307439267</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.70874113784576</v>
+        <v>72.81139630332633</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.5208470146194</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>23.6571427846584</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6672795084542</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.57048307439267</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>109.0859515516289</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.70874113784556</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.6672795084542</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5673683864896</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>85.57048307439267</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.5208470146194</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>6.703456019473776</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>65.70874113784556</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>22.96498608116914</v>
       </c>
       <c r="H22" t="n">
         <v>141.5673683864896</v>
       </c>
       <c r="I22" t="n">
-        <v>85.57048307439267</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.5208470146194</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.0170537055346</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>30.94254291539367</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>85.57048307439267</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>72.81139630332633</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>173.878091988967</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.70874113784558</v>
+        <v>40.02928842570736</v>
       </c>
       <c r="H28" t="n">
-        <v>141.5673683864896</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>85.57048307439267</v>
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>27.84407619554511</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6672795084542</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.5673683864896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.57048307439267</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5997715001001</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-7.125411499730013e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26341,19 +26341,19 @@
         <v>120516.3240050114</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796427</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
+        <v>123156.2654796427</v>
+      </c>
+      <c r="O2" t="n">
         <v>123156.2654796426</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>123156.2654796425</v>
-      </c>
-      <c r="P2" t="n">
-        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>882372.9502344647</v>
+        <v>882372.9502344646</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99150.02299981563</v>
+        <v>99150.02299981567</v>
       </c>
       <c r="M3" t="n">
         <v>125688.2751622704</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,37 +26418,37 @@
         <v>283088.7848692079</v>
       </c>
       <c r="C4" t="n">
-        <v>350497.5914804416</v>
+        <v>350497.5914804417</v>
       </c>
       <c r="D4" t="n">
-        <v>227638.2345336369</v>
+        <v>227638.2345336368</v>
       </c>
       <c r="E4" t="n">
+        <v>15059.07905874659</v>
+      </c>
+      <c r="F4" t="n">
         <v>15059.07905874658</v>
       </c>
-      <c r="F4" t="n">
-        <v>15059.07905874663</v>
-      </c>
       <c r="G4" t="n">
-        <v>15059.07905874664</v>
+        <v>15059.07905874659</v>
       </c>
       <c r="H4" t="n">
+        <v>15059.0790587466</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15059.07905874657</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15059.07905874658</v>
+      </c>
+      <c r="K4" t="n">
         <v>15059.07905874659</v>
       </c>
-      <c r="I4" t="n">
-        <v>15059.07905874656</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15059.07905874659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15059.07905874657</v>
-      </c>
       <c r="L4" t="n">
-        <v>35234.52785386577</v>
+        <v>35234.52785386574</v>
       </c>
       <c r="M4" t="n">
-        <v>35234.52785386577</v>
+        <v>35234.52785386579</v>
       </c>
       <c r="N4" t="n">
         <v>35234.52785386577</v>
@@ -26457,7 +26457,7 @@
         <v>35234.52785386577</v>
       </c>
       <c r="P4" t="n">
-        <v>35234.52785386574</v>
+        <v>35234.52785386578</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>99753.11087775107</v>
       </c>
       <c r="F5" t="n">
-        <v>99753.11087775105</v>
+        <v>99753.11087775107</v>
       </c>
       <c r="G5" t="n">
-        <v>99753.11087775108</v>
+        <v>99753.11087775107</v>
       </c>
       <c r="H5" t="n">
         <v>99753.11087775107</v>
       </c>
       <c r="I5" t="n">
-        <v>99753.11087775105</v>
+        <v>99753.11087775107</v>
       </c>
       <c r="J5" t="n">
         <v>99753.11087775107</v>
       </c>
       <c r="K5" t="n">
-        <v>99753.11087775108</v>
+        <v>99753.11087775107</v>
       </c>
       <c r="L5" t="n">
         <v>96040.05594923736</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355122.5596567809</v>
+        <v>-355417.8149785078</v>
       </c>
       <c r="C6" t="n">
         <v>-278522.7055175793</v>
@@ -26528,40 +26528,40 @@
         <v>-604524.6692710918</v>
       </c>
       <c r="E6" t="n">
-        <v>-876668.816165951</v>
+        <v>-876712.8151905281</v>
       </c>
       <c r="F6" t="n">
-        <v>5704.134068513828</v>
+        <v>5660.135043936598</v>
       </c>
       <c r="G6" t="n">
-        <v>5704.134068513551</v>
+        <v>5660.135043936583</v>
       </c>
       <c r="H6" t="n">
-        <v>5704.134068513769</v>
+        <v>5660.135043936496</v>
       </c>
       <c r="I6" t="n">
-        <v>5704.134068513769</v>
+        <v>5660.135043936554</v>
       </c>
       <c r="J6" t="n">
-        <v>-66550.56080262545</v>
+        <v>-66594.55982720252</v>
       </c>
       <c r="K6" t="n">
-        <v>5704.134068513726</v>
+        <v>5660.135043936583</v>
       </c>
       <c r="L6" t="n">
-        <v>-107268.3413232762</v>
+        <v>-107268.3413232761</v>
       </c>
       <c r="M6" t="n">
         <v>-133806.5934857309</v>
       </c>
       <c r="N6" t="n">
+        <v>-8118.318323460466</v>
+      </c>
+      <c r="O6" t="n">
         <v>-8118.318323460524</v>
       </c>
-      <c r="O6" t="n">
-        <v>-8118.318323460684</v>
-      </c>
       <c r="P6" t="n">
-        <v>-8118.318323460495</v>
+        <v>-8118.318323460626</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="M2" t="n">
         <v>30.75891229683742</v>
@@ -26722,10 +26722,10 @@
         <v>30.75891229683738</v>
       </c>
       <c r="O2" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="P2" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912533</v>
@@ -26799,7 +26799,7 @@
         <v>1178.646252394812</v>
       </c>
       <c r="F4" t="n">
-        <v>1178.646252394811</v>
+        <v>1178.646252394812</v>
       </c>
       <c r="G4" t="n">
         <v>1178.646252394812</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.75891229683744</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979612</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
-        <v>910.8535253309188</v>
+        <v>910.8535253309187</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>294.5300036838357</v>
+        <v>294.530003683836</v>
       </c>
       <c r="M4" t="n">
         <v>504.3589796402561</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.1232477716998</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>88.94554821756273</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268739</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>47.9394896655654</v>
+        <v>0.8831725115200015</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>137.5366751736811</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.19643759900796</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27670,16 +27670,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>164.2829627323753</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>81.72947155658704</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>18.35958327841172</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>129.1485236562874</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>91.9387000216621</v>
       </c>
       <c r="W7" t="n">
-        <v>126.3240550344251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>136.1053849558762</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>138.2384675615768</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>32.71940047291451</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>117.8540757549812</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.391665386026678e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="C32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="D32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="E32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="G32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="H32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="I32" t="n">
-        <v>2.187951574663144</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="T32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="U32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="V32" t="n">
-        <v>30.75891229683738</v>
+        <v>2.187951574661497</v>
       </c>
       <c r="W32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="X32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="C34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="D34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="E34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="F34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="G34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="H34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="I34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="J34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="K34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="L34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="M34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="N34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="O34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="P34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="R34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="S34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="T34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="U34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="V34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="W34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="X34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.75891229683738</v>
+        <v>30.75891229683742</v>
       </c>
     </row>
     <row r="35">
@@ -30001,10 +30001,10 @@
         <v>30.75891229683742</v>
       </c>
       <c r="H35" t="n">
-        <v>2.18795157466235</v>
+        <v>30.75891229683742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30043,10 +30043,10 @@
         <v>30.75891229683742</v>
       </c>
       <c r="V35" t="n">
-        <v>30.75891229683742</v>
+        <v>22.1841125927503</v>
       </c>
       <c r="W35" t="n">
-        <v>30.75891229683742</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>30.75891229683742</v>
@@ -30238,10 +30238,10 @@
         <v>30.75891229683738</v>
       </c>
       <c r="H38" t="n">
-        <v>30.75891229683738</v>
+        <v>2.187951574663145</v>
       </c>
       <c r="I38" t="n">
-        <v>2.187951574663144</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>30.75891229683738</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="V38" t="n">
         <v>30.75891229683738</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="C41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="D41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="E41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="F41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="G41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="H41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="I41" t="n">
-        <v>10.76275127874968</v>
+        <v>2.187951574663144</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="T41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="U41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="W41" t="n">
-        <v>22.18411259275075</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="X41" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.75891229683737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="C43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="D43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="E43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="F43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="G43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="H43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="I43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="J43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="K43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="L43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="M43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="N43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="O43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="P43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="R43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="S43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="T43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="U43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="V43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="W43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="X43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.75891229683737</v>
+        <v>30.75891229683738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="C44" t="n">
-        <v>30.75891229683742</v>
+        <v>22.18411259275092</v>
       </c>
       <c r="D44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="E44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="F44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="G44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="H44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.76275127874968</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="T44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="U44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="V44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="W44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="X44" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.187951574661611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="C46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="D46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="E46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="F46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="G46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="H46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="I46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="J46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="K46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="L46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="M46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="N46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="O46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="P46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="R46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="S46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="T46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="U46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="V46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="W46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="X46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.75891229683742</v>
+        <v>30.75891229683738</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31054,31 +31054,31 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>720.8728749340299</v>
+        <v>591.41466337648</v>
       </c>
       <c r="O12" t="n">
-        <v>503.590631332537</v>
+        <v>659.4578466170816</v>
       </c>
       <c r="P12" t="n">
         <v>529.2730607409535</v>
@@ -31862,7 +31862,7 @@
         <v>353.8050245717467</v>
       </c>
       <c r="R12" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>51.48310469562075</v>
@@ -32084,13 +32084,13 @@
         <v>601.8113572506983</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>702.2854683036628</v>
       </c>
       <c r="N15" t="n">
-        <v>720.8728749340299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>503.590631332537</v>
+        <v>532.9703598015892</v>
       </c>
       <c r="P15" t="n">
         <v>529.2730607409535</v>
@@ -32321,13 +32321,13 @@
         <v>601.8113572506983</v>
       </c>
       <c r="M18" t="n">
-        <v>575.7979814881705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>720.8728749340299</v>
       </c>
       <c r="O18" t="n">
-        <v>659.4578466170816</v>
+        <v>529.9996350595314</v>
       </c>
       <c r="P18" t="n">
         <v>529.2730607409535</v>
@@ -32336,7 +32336,7 @@
         <v>353.8050245717467</v>
       </c>
       <c r="R18" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.48310469562075</v>
@@ -32549,19 +32549,19 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>447.568704977254</v>
       </c>
       <c r="L21" t="n">
-        <v>330.5471776759603</v>
+        <v>601.8113572506983</v>
       </c>
       <c r="M21" t="n">
-        <v>702.2854683036628</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>720.8728749340299</v>
+        <v>591.41466337648</v>
       </c>
       <c r="O21" t="n">
         <v>659.4578466170816</v>
@@ -32573,7 +32573,7 @@
         <v>353.8050245717467</v>
       </c>
       <c r="R21" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.48310469562075</v>
@@ -32789,19 +32789,19 @@
         <v>261.8648307552226</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>447.568704977254</v>
       </c>
       <c r="L24" t="n">
-        <v>195.5199735874044</v>
+        <v>601.8113572506983</v>
       </c>
       <c r="M24" t="n">
         <v>702.2854683036628</v>
       </c>
       <c r="N24" t="n">
-        <v>720.8728749340299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>659.4578466170816</v>
+        <v>559.3793635285837</v>
       </c>
       <c r="P24" t="n">
         <v>529.2730607409535</v>
@@ -32810,7 +32810,7 @@
         <v>353.8050245717467</v>
       </c>
       <c r="R24" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.48310469562075</v>
@@ -33023,19 +33023,19 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>447.568704977254</v>
       </c>
       <c r="L27" t="n">
-        <v>356.9561814029547</v>
+        <v>601.8113572506983</v>
       </c>
       <c r="M27" t="n">
-        <v>702.2854683036628</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>720.8728749340299</v>
+        <v>565.0056596494856</v>
       </c>
       <c r="O27" t="n">
         <v>659.4578466170816</v>
@@ -33047,7 +33047,7 @@
         <v>353.8050245717467</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>172.0885076909582</v>
       </c>
       <c r="S27" t="n">
         <v>51.48310469562075</v>
@@ -33260,13 +33260,13 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>447.568704977254</v>
       </c>
       <c r="L30" t="n">
-        <v>330.5471776759603</v>
+        <v>601.8113572506983</v>
       </c>
       <c r="M30" t="n">
         <v>702.2854683036628</v>
@@ -33275,16 +33275,16 @@
         <v>720.8728749340299</v>
       </c>
       <c r="O30" t="n">
-        <v>659.4578466170816</v>
+        <v>578.9701044902354</v>
       </c>
       <c r="P30" t="n">
-        <v>529.2730607409535</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.8050245717467</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.48310469562075</v>
@@ -33497,13 +33497,13 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>447.568704977254</v>
       </c>
       <c r="L33" t="n">
-        <v>330.5471776759602</v>
+        <v>601.8113572506983</v>
       </c>
       <c r="M33" t="n">
         <v>702.2854683036628</v>
@@ -33512,16 +33512,16 @@
         <v>720.8728749340299</v>
       </c>
       <c r="O33" t="n">
-        <v>659.4578466170816</v>
+        <v>578.9701044902354</v>
       </c>
       <c r="P33" t="n">
-        <v>529.2730607409535</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.8050245717467</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.48310469562075</v>
@@ -33734,7 +33734,7 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K36" t="n">
         <v>447.568704977254</v>
@@ -33749,10 +33749,10 @@
         <v>720.8728749340299</v>
       </c>
       <c r="O36" t="n">
-        <v>659.4578466170816</v>
+        <v>578.9701044902354</v>
       </c>
       <c r="P36" t="n">
-        <v>188.5138693760402</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33971,13 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>447.568704977254</v>
       </c>
       <c r="L39" t="n">
-        <v>330.5471776759602</v>
+        <v>601.8113572506983</v>
       </c>
       <c r="M39" t="n">
         <v>702.2854683036628</v>
@@ -33986,16 +33986,16 @@
         <v>720.8728749340299</v>
       </c>
       <c r="O39" t="n">
-        <v>659.4578466170816</v>
+        <v>578.9701044902354</v>
       </c>
       <c r="P39" t="n">
-        <v>529.2730607409535</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.8050245717467</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>172.0885076909582</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.48310469562075</v>
@@ -34208,7 +34208,7 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8648307552226</v>
       </c>
       <c r="K42" t="n">
         <v>447.568704977254</v>
@@ -34223,10 +34223,10 @@
         <v>720.8728749340299</v>
       </c>
       <c r="O42" t="n">
-        <v>659.4578466170816</v>
+        <v>578.9701044902354</v>
       </c>
       <c r="P42" t="n">
-        <v>188.5138693760402</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34369,10 +34369,10 @@
         <v>439.6706561463319</v>
       </c>
       <c r="K44" t="n">
-        <v>658.9523407033853</v>
+        <v>658.952340703386</v>
       </c>
       <c r="L44" t="n">
-        <v>817.4886471943601</v>
+        <v>817.4886471943594</v>
       </c>
       <c r="M44" t="n">
         <v>909.6136332028993</v>
@@ -34445,7 +34445,7 @@
         <v>95.42913149011174</v>
       </c>
       <c r="J45" t="n">
-        <v>261.8648307552226</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>447.568704977254</v>
@@ -34460,13 +34460,13 @@
         <v>720.8728749340299</v>
       </c>
       <c r="O45" t="n">
-        <v>578.9701044902354</v>
+        <v>659.4578466170816</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>194.5212360477315</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>158.2658797799248</v>
+        <v>210.4624139667339</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,16 +34863,16 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
@@ -35024,10 +35024,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>20.8971052091479</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>151.298066666745</v>
       </c>
       <c r="P6" t="n">
         <v>198.8728484821096</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>427.7213667917193</v>
+        <v>258.6247516196456</v>
       </c>
       <c r="K11" t="n">
         <v>438.8624896584047</v>
@@ -35416,7 +35416,7 @@
         <v>581.7222322243722</v>
       </c>
       <c r="M11" t="n">
-        <v>679.2673999756266</v>
+        <v>1089.484532343291</v>
       </c>
       <c r="N11" t="n">
         <v>694.9190691633066</v>
@@ -35428,10 +35428,10 @@
         <v>513.699211695947</v>
       </c>
       <c r="Q11" t="n">
-        <v>512.5114717810314</v>
+        <v>337.1073744584235</v>
       </c>
       <c r="R11" t="n">
-        <v>175.5372869149102</v>
+        <v>109.8208670419278</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>589.5311628506967</v>
+        <v>460.0729512931467</v>
       </c>
       <c r="O12" t="n">
-        <v>360.9943868880925</v>
+        <v>516.8616021726372</v>
       </c>
       <c r="P12" t="n">
         <v>395.2986533266233</v>
@@ -35510,7 +35510,7 @@
         <v>213.8232504857252</v>
       </c>
       <c r="R12" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>258.6247516196456</v>
+        <v>390.8104734544224</v>
       </c>
       <c r="K14" t="n">
         <v>438.8624896584047</v>
@@ -35659,16 +35659,16 @@
         <v>694.9190691633066</v>
       </c>
       <c r="O14" t="n">
-        <v>1023.522591832844</v>
+        <v>642.7224105700982</v>
       </c>
       <c r="P14" t="n">
-        <v>543.1161628008643</v>
+        <v>513.699211695947</v>
       </c>
       <c r="Q14" t="n">
-        <v>337.1073744584235</v>
+        <v>549.4223651183281</v>
       </c>
       <c r="R14" t="n">
-        <v>109.8208670419278</v>
+        <v>175.5372869149102</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>463.2569774708241</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>560.1514343816445</v>
       </c>
       <c r="N15" t="n">
-        <v>589.5311628506967</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.9943868880925</v>
+        <v>390.3741153571448</v>
       </c>
       <c r="P15" t="n">
         <v>395.2986533266233</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.6247516196456</v>
+        <v>427.7213667917193</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8624896584047</v>
+        <v>679.9830068539953</v>
       </c>
       <c r="L17" t="n">
         <v>581.7222322243722</v>
@@ -35893,7 +35893,7 @@
         <v>679.2673999756266</v>
       </c>
       <c r="N17" t="n">
-        <v>1105.136201530971</v>
+        <v>694.9190691633066</v>
       </c>
       <c r="O17" t="n">
         <v>642.7224105700982</v>
@@ -35969,13 +35969,13 @@
         <v>463.2569774708241</v>
       </c>
       <c r="M18" t="n">
-        <v>433.6639475661523</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>589.5311628506967</v>
       </c>
       <c r="O18" t="n">
-        <v>516.8616021726372</v>
+        <v>387.403390615087</v>
       </c>
       <c r="P18" t="n">
         <v>395.2986533266233</v>
@@ -35984,7 +35984,7 @@
         <v>213.8232504857252</v>
       </c>
       <c r="R18" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>427.7213667917193</v>
+        <v>258.6247516196456</v>
       </c>
       <c r="K20" t="n">
-        <v>438.8624896584047</v>
+        <v>763.0079022295695</v>
       </c>
       <c r="L20" t="n">
         <v>581.7222322243722</v>
@@ -36133,7 +36133,7 @@
         <v>694.9190691633066</v>
       </c>
       <c r="O20" t="n">
-        <v>818.1265078927063</v>
+        <v>728.7941303665982</v>
       </c>
       <c r="P20" t="n">
         <v>513.699211695947</v>
@@ -36142,7 +36142,7 @@
         <v>337.1073744584235</v>
       </c>
       <c r="R20" t="n">
-        <v>175.5372869149102</v>
+        <v>109.8208670419278</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>309.727266002895</v>
       </c>
       <c r="L21" t="n">
-        <v>191.9927978960861</v>
+        <v>463.2569774708241</v>
       </c>
       <c r="M21" t="n">
-        <v>560.1514343816445</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>589.5311628506967</v>
+        <v>460.0729512931467</v>
       </c>
       <c r="O21" t="n">
         <v>516.8616021726372</v>
@@ -36221,7 +36221,7 @@
         <v>213.8232504857252</v>
       </c>
       <c r="R21" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.6247516196456</v>
+        <v>427.7213667917193</v>
       </c>
       <c r="K23" t="n">
         <v>438.8624896584047</v>
@@ -36373,10 +36373,10 @@
         <v>642.7224105700982</v>
       </c>
       <c r="P23" t="n">
-        <v>645.8849335307228</v>
+        <v>513.699211695947</v>
       </c>
       <c r="Q23" t="n">
-        <v>549.4223651183281</v>
+        <v>512.5114717810314</v>
       </c>
       <c r="R23" t="n">
         <v>175.5372869149102</v>
@@ -36437,19 +36437,19 @@
         <v>135.0272040885559</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>309.727266002895</v>
       </c>
       <c r="L24" t="n">
-        <v>56.96559380753021</v>
+        <v>463.2569774708241</v>
       </c>
       <c r="M24" t="n">
         <v>560.1514343816445</v>
       </c>
       <c r="N24" t="n">
-        <v>589.5311628506967</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>516.8616021726372</v>
+        <v>416.7831190841392</v>
       </c>
       <c r="P24" t="n">
         <v>395.2986533266233</v>
@@ -36458,7 +36458,7 @@
         <v>213.8232504857252</v>
       </c>
       <c r="R24" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>427.7213667917193</v>
+        <v>258.6247516196456</v>
       </c>
       <c r="K26" t="n">
         <v>438.8624896584047</v>
@@ -36601,7 +36601,7 @@
         <v>581.7222322243722</v>
       </c>
       <c r="M26" t="n">
-        <v>920.3879171712173</v>
+        <v>811.4531218104034</v>
       </c>
       <c r="N26" t="n">
         <v>694.9190691633066</v>
@@ -36613,10 +36613,10 @@
         <v>513.699211695947</v>
       </c>
       <c r="Q26" t="n">
-        <v>337.1073744584235</v>
+        <v>549.4223651183281</v>
       </c>
       <c r="R26" t="n">
-        <v>109.8208670419278</v>
+        <v>175.5372869149102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>309.727266002895</v>
       </c>
       <c r="L27" t="n">
-        <v>218.4018016230805</v>
+        <v>463.2569774708241</v>
       </c>
       <c r="M27" t="n">
-        <v>560.1514343816445</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>589.5311628506967</v>
+        <v>433.6639475661523</v>
       </c>
       <c r="O27" t="n">
         <v>516.8616021726372</v>
@@ -36695,7 +36695,7 @@
         <v>213.8232504857252</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.40900372699429</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>427.7213667917193</v>
       </c>
       <c r="K29" t="n">
-        <v>679.9830068539964</v>
+        <v>438.8624896584047</v>
       </c>
       <c r="L29" t="n">
         <v>581.7222322243722</v>
@@ -36847,7 +36847,7 @@
         <v>642.7224105700982</v>
       </c>
       <c r="P29" t="n">
-        <v>513.699211695947</v>
+        <v>754.8197288915378</v>
       </c>
       <c r="Q29" t="n">
         <v>337.1073744584235</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>309.727266002895</v>
       </c>
       <c r="L30" t="n">
-        <v>191.992797896086</v>
+        <v>463.2569774708241</v>
       </c>
       <c r="M30" t="n">
         <v>560.1514343816445</v>
@@ -36923,16 +36923,16 @@
         <v>589.5311628506967</v>
       </c>
       <c r="O30" t="n">
-        <v>516.8616021726372</v>
+        <v>436.3738600457909</v>
       </c>
       <c r="P30" t="n">
-        <v>395.2986533266233</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.8232504857252</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>309.727266002895</v>
       </c>
       <c r="L33" t="n">
-        <v>191.992797896086</v>
+        <v>463.2569774708241</v>
       </c>
       <c r="M33" t="n">
         <v>560.1514343816445</v>
@@ -37160,16 +37160,16 @@
         <v>589.5311628506967</v>
       </c>
       <c r="O33" t="n">
-        <v>516.8616021726372</v>
+        <v>436.3738600457909</v>
       </c>
       <c r="P33" t="n">
-        <v>395.2986533266233</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.8232504857252</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>278.4610939533071</v>
       </c>
       <c r="L34" t="n">
-        <v>403.8197316205647</v>
+        <v>403.8197316205648</v>
       </c>
       <c r="M34" t="n">
         <v>434.5933030189444</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K36" t="n">
         <v>309.727266002895</v>
@@ -37397,10 +37397,10 @@
         <v>589.5311628506967</v>
       </c>
       <c r="O36" t="n">
-        <v>516.8616021726372</v>
+        <v>436.3738600457909</v>
       </c>
       <c r="P36" t="n">
-        <v>54.53946196170997</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>309.727266002895</v>
       </c>
       <c r="L39" t="n">
-        <v>191.992797896086</v>
+        <v>463.2569774708241</v>
       </c>
       <c r="M39" t="n">
         <v>560.1514343816445</v>
@@ -37634,16 +37634,16 @@
         <v>589.5311628506967</v>
       </c>
       <c r="O39" t="n">
-        <v>516.8616021726372</v>
+        <v>436.3738600457909</v>
       </c>
       <c r="P39" t="n">
-        <v>395.2986533266233</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.8232504857252</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.40900372699429</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>135.0272040885559</v>
       </c>
       <c r="K42" t="n">
         <v>309.727266002895</v>
@@ -37871,10 +37871,10 @@
         <v>589.5311628506967</v>
       </c>
       <c r="O42" t="n">
-        <v>516.8616021726372</v>
+        <v>436.3738600457909</v>
       </c>
       <c r="P42" t="n">
-        <v>54.53946196170997</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>258.6247516196456</v>
       </c>
       <c r="K44" t="n">
-        <v>438.8624896584047</v>
+        <v>438.8624896584054</v>
       </c>
       <c r="L44" t="n">
-        <v>581.7222322243728</v>
+        <v>581.7222322243722</v>
       </c>
       <c r="M44" t="n">
         <v>679.2673999756266</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>135.0272040885559</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>309.727266002895</v>
@@ -38108,13 +38108,13 @@
         <v>589.5311628506967</v>
       </c>
       <c r="O45" t="n">
-        <v>436.3738600457909</v>
+        <v>516.8616021726372</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>54.53946196170997</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>434.5933030189444</v>
       </c>
       <c r="N46" t="n">
-        <v>430.4805353590429</v>
+        <v>430.4805353590428</v>
       </c>
       <c r="O46" t="n">
         <v>383.7884517369819</v>
